--- a/src/main/resources/static/data/printaddr/address-template.xlsx
+++ b/src/main/resources/static/data/printaddr/address-template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>No</t>
   </si>
@@ -40,7 +40,7 @@
     <t>番地・建物</t>
   </si>
   <si>
-    <t>説明</t>
+    <t>1行目は項目行とする</t>
   </si>
   <si>
     <t>佐藤</t>
@@ -67,7 +67,7 @@
     <t>西新宿2-8-1 マンション新宿123</t>
   </si>
   <si>
-    <t>No.0 には差出人を記載（表面に印字しない場合は全て空欄）</t>
+    <t>2行目に差出人を記載する（印字しない場合は全て空欄）</t>
   </si>
   <si>
     <t>鈴木</t>
@@ -94,7 +94,7 @@
     <t>日本大通1 ハイツ港A234</t>
   </si>
   <si>
-    <t>No.1 以降に宛名の住所録を記載</t>
+    <t>3行目以降に宛先の住所録を記載する</t>
   </si>
   <si>
     <t>高橋</t>
@@ -192,9 +192,6 @@
   <si>
     <t>下立売通新町西入薮ノ内町</t>
   </si>
-  <si>
-    <t>5人以上に送りたい場合は No.11 以降に行を追加</t>
-  </si>
 </sst>
 </file>
 
@@ -212,11 +209,11 @@
     </font>
     <font>
       <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,24 +275,24 @@
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,7 +585,7 @@
       <c r="I2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="5"/>
@@ -624,7 +621,7 @@
       <c r="I3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="5"/>
@@ -657,7 +654,7 @@
       <c r="H4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="5"/>
@@ -667,7 +664,7 @@
       <c r="N4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>3.0</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -691,7 +688,7 @@
       <c r="H5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="11" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="5"/>
@@ -701,7 +698,7 @@
       <c r="N5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>4.0</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -725,7 +722,7 @@
       <c r="H6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="11" t="s">
         <v>51</v>
       </c>
       <c r="J6" s="5"/>
@@ -735,7 +732,7 @@
       <c r="N6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>5.0</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -759,12 +756,10 @@
       <c r="H7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="J7" s="10"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
